--- a/Practical 14/autophagosome.xlsx
+++ b/Practical 14/autophagosome.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1120,7 +1120,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
